--- a/dataframes/experimental_data_density/0358.xlsx
+++ b/dataframes/experimental_data_density/0358.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/cd318_ic_ac_uk/Documents/UNI/PhD/Code/GitHub repos/EOS/dataframes/experimental_data_density/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{6686655E-C77F-4C8D-A3FC-F4AC64AFF56B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26CCB8F3-2EC5-4EE1-B373-5C2DF6E60474}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="8_{6686655E-C77F-4C8D-A3FC-F4AC64AFF56B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C000D20-D9C1-4D4B-A3AA-8993924783EA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BA9F114C-C4C5-4935-983D-92C06C151978}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BA9F114C-C4C5-4935-983D-92C06C151978}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="11">
   <si>
     <t>P_raw</t>
   </si>
@@ -63,6 +63,12 @@
   </si>
   <si>
     <t>delta_rho</t>
+  </si>
+  <si>
+    <t>rho_raw</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
 </sst>
 </file>
@@ -115,6 +121,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -434,15 +444,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{513EABDB-75D5-42FB-B2F1-05ECAAD8B0E9}">
-  <dimension ref="A1:I60"/>
+  <dimension ref="A1:J153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G153" sqref="G153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -450,1386 +461,5804 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2">
         <v>25</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
         <v>0.97799999999999998</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <f>A2*101325</f>
         <v>202650</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <f>B2+273.15</f>
         <v>298.14999999999998</v>
       </c>
-      <c r="F2">
-        <f>D2/(B2*488.209556616782*E2)</f>
+      <c r="G2">
+        <f>E2/(B2*488.209556616782*F2)</f>
         <v>5.5688498619172286E-2</v>
       </c>
       <c r="H2">
-        <f>0.01/E2*100</f>
-        <v>3.3540164346805303E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <f>0.02+0.1/760/A2*100 + 0.05/760/A2*100</f>
+        <v>2.9868421052631579E-2</v>
+      </c>
+      <c r="I2">
+        <f>0.01/B2*100</f>
+        <v>0.04</v>
+      </c>
+      <c r="J2">
+        <f>0.2+H2+I2</f>
+        <v>0.26986842105263159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4</v>
       </c>
       <c r="B3">
         <v>25</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
         <v>0.9546</v>
       </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D60" si="0">A3*101325</f>
+      <c r="E3">
+        <f t="shared" ref="E3:E60" si="0">A3*101325</f>
         <v>405300</v>
       </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E60" si="1">B3+273.15</f>
+      <c r="F3">
+        <f t="shared" ref="F3:F66" si="1">B3+273.15</f>
         <v>298.14999999999998</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F60" si="2">D3/(B3*488.209556616782*E3)</f>
+      <c r="G3">
+        <f t="shared" ref="G3:G60" si="2">E3/(B3*488.209556616782*F3)</f>
         <v>0.11137699723834457</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <f t="shared" ref="H3:H66" si="3">0.02+0.1/760/A3*100 + 0.05/760/A3*100</f>
+        <v>2.4934210526315788E-2</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I66" si="4">0.01/B3*100</f>
+        <v>0.04</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J66" si="5">0.2+H3+I3</f>
+        <v>0.26493421052631577</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6</v>
       </c>
       <c r="B4">
         <v>25</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
         <v>0.93079999999999996</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <f t="shared" si="0"/>
         <v>607950</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <f t="shared" si="1"/>
         <v>298.14999999999998</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <f t="shared" si="2"/>
         <v>0.16706549585751684</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <f t="shared" si="3"/>
+        <v>2.3289473684210527E-2</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="4"/>
+        <v>0.04</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="5"/>
+        <v>0.26328947368421052</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>7</v>
       </c>
       <c r="B5">
         <v>25</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5">
         <v>0.91710000000000003</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <f t="shared" si="0"/>
         <v>709275</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <f t="shared" si="1"/>
         <v>298.14999999999998</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <f t="shared" si="2"/>
         <v>0.19490974516710299</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <f t="shared" si="3"/>
+        <v>2.2819548872180451E-2</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="4"/>
+        <v>0.04</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="5"/>
+        <v>0.26281954887218045</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>8</v>
       </c>
       <c r="B6">
         <v>25</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6">
         <v>0.90269999999999995</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <f t="shared" si="0"/>
         <v>810600</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <f t="shared" si="1"/>
         <v>298.14999999999998</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <f t="shared" si="2"/>
         <v>0.22275399447668914</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>2.2467105263157896E-2</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="4"/>
+        <v>0.04</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="5"/>
+        <v>0.26246710526315792</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>9</v>
       </c>
       <c r="B7">
         <v>25</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7">
         <v>0.88619999999999999</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <f t="shared" si="0"/>
         <v>911925</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <f t="shared" si="1"/>
         <v>298.14999999999998</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <f t="shared" si="2"/>
         <v>0.25059824378627527</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>2.2192982456140351E-2</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="4"/>
+        <v>0.04</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="5"/>
+        <v>0.26219298245614037</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>9.3000000000000007</v>
       </c>
       <c r="B8">
         <v>25</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8">
         <v>0.88</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <f t="shared" si="0"/>
         <v>942322.50000000012</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <f t="shared" si="1"/>
         <v>298.14999999999998</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <f t="shared" si="2"/>
         <v>0.25895151857915116</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>2.2122241086587436E-2</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="4"/>
+        <v>0.04</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="5"/>
+        <v>0.26212224108658744</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9.5</v>
       </c>
       <c r="B9">
         <v>25</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9">
         <v>0.87429999999999997</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <f t="shared" si="0"/>
         <v>962587.5</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <f t="shared" si="1"/>
         <v>298.14999999999998</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <f t="shared" si="2"/>
         <v>0.26452036844106835</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>2.2077562326869807E-2</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="4"/>
+        <v>0.04</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="5"/>
+        <v>0.2620775623268698</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9.6999999999999993</v>
       </c>
       <c r="B10">
         <v>25</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10">
         <v>0.86560000000000004</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <f t="shared" si="0"/>
         <v>982852.49999999988</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <f t="shared" si="1"/>
         <v>298.14999999999998</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <f t="shared" si="2"/>
         <v>0.27008921830298555</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>2.2034725990233317E-2</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="4"/>
+        <v>0.04</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="5"/>
+        <v>0.26203472599023331</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
       <c r="B11">
         <v>50</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11">
         <v>0.98560000000000003</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <f t="shared" si="0"/>
         <v>202650</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <f t="shared" si="1"/>
         <v>323.14999999999998</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <f t="shared" si="2"/>
         <v>2.5690122022754475E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>2.9868421052631579E-2</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="4"/>
+        <v>0.02</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="5"/>
+        <v>0.24986842105263157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4</v>
       </c>
       <c r="B12">
         <v>50</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12">
         <v>0.97040000000000004</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <f t="shared" si="0"/>
         <v>405300</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <f t="shared" si="1"/>
         <v>323.14999999999998</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <f t="shared" si="2"/>
         <v>5.1380244045508949E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <f t="shared" si="3"/>
+        <v>2.4934210526315788E-2</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="4"/>
+        <v>0.02</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="5"/>
+        <v>0.24493421052631578</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>6</v>
       </c>
       <c r="B13">
         <v>50</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13">
         <v>0.95440000000000003</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <f t="shared" si="0"/>
         <v>607950</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <f t="shared" si="1"/>
         <v>323.14999999999998</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <f t="shared" si="2"/>
         <v>7.7070366068263424E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <f t="shared" si="3"/>
+        <v>2.3289473684210527E-2</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="4"/>
+        <v>0.02</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="5"/>
+        <v>0.24328947368421053</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>8</v>
       </c>
       <c r="B14">
         <v>50</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14">
         <v>0.93720000000000003</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <f t="shared" si="0"/>
         <v>810600</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <f t="shared" si="1"/>
         <v>323.14999999999998</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <f t="shared" si="2"/>
         <v>0.1027604880910179</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <f t="shared" si="3"/>
+        <v>2.2467105263157896E-2</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="4"/>
+        <v>0.02</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="5"/>
+        <v>0.2424671052631579</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10</v>
       </c>
       <c r="B15">
         <v>50</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15">
         <v>0.91879999999999995</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <f t="shared" si="0"/>
         <v>1013250</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <f t="shared" si="1"/>
         <v>323.14999999999998</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <f t="shared" si="2"/>
         <v>0.12845061011377237</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <f t="shared" si="3"/>
+        <v>2.1973684210526315E-2</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="4"/>
+        <v>0.02</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="5"/>
+        <v>0.24197368421052631</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12</v>
       </c>
       <c r="B16">
         <v>50</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16">
         <v>0.89929999999999999</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <f t="shared" si="0"/>
         <v>1215900</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <f t="shared" si="1"/>
         <v>323.14999999999998</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <f t="shared" si="2"/>
         <v>0.15414073213652685</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <f t="shared" si="3"/>
+        <v>2.1644736842105265E-2</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="4"/>
+        <v>0.02</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="5"/>
+        <v>0.24164473684210527</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
       <c r="B17">
         <v>50</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17">
         <v>0.87929999999999997</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <f t="shared" si="0"/>
         <v>1418550</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <f t="shared" si="1"/>
         <v>323.14999999999998</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <f t="shared" si="2"/>
         <v>0.17983085415928132</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <f t="shared" si="3"/>
+        <v>2.1409774436090226E-2</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="4"/>
+        <v>0.02</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="5"/>
+        <v>0.24140977443609021</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18">
         <v>50</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18">
         <v>0.85919999999999996</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <f t="shared" si="0"/>
         <v>1621200</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <f t="shared" si="1"/>
         <v>323.14999999999998</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <f t="shared" si="2"/>
         <v>0.2055209761820358</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <f t="shared" si="3"/>
+        <v>2.1233552631578948E-2</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="4"/>
+        <v>0.02</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="5"/>
+        <v>0.24123355263157895</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
         <v>50</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19">
         <v>0.83850000000000002</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <f t="shared" si="0"/>
         <v>1823850</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <f t="shared" si="1"/>
         <v>323.14999999999998</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <f t="shared" si="2"/>
         <v>0.23121109820479027</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <f t="shared" si="3"/>
+        <v>2.1096491228070176E-2</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="4"/>
+        <v>0.02</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="5"/>
+        <v>0.24109649122807017</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
         <v>50</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20">
         <v>0.82550000000000001</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <f t="shared" si="0"/>
         <v>1925175</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <f t="shared" si="1"/>
         <v>323.14999999999998</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <f t="shared" si="2"/>
         <v>0.24405615921616752</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <f t="shared" si="3"/>
+        <v>2.1038781163434904E-2</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="4"/>
+        <v>0.02</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="5"/>
+        <v>0.24103878116343491</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19.5</v>
       </c>
       <c r="B21">
         <v>50</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21">
         <v>0.81499999999999995</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <f t="shared" si="0"/>
         <v>1975837.5</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <f t="shared" si="1"/>
         <v>323.14999999999998</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <f t="shared" si="2"/>
         <v>0.25047868972185616</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <f t="shared" si="3"/>
+        <v>2.1012145748987854E-2</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="4"/>
+        <v>0.02</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="5"/>
+        <v>0.24101214574898785</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>19.8</v>
       </c>
       <c r="B22">
         <v>50</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22">
         <v>0.80269999999999997</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <f t="shared" si="0"/>
         <v>2006235</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <f t="shared" si="1"/>
         <v>323.14999999999998</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <f t="shared" si="2"/>
         <v>0.25433220802526929</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <f t="shared" si="3"/>
+        <v>2.0996810207336524E-2</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="4"/>
+        <v>0.02</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="5"/>
+        <v>0.24099681020733651</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>5</v>
       </c>
       <c r="B23">
         <v>75</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23">
         <v>0.97240000000000004</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <f t="shared" si="0"/>
         <v>506625</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <f t="shared" si="1"/>
         <v>348.15</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <f t="shared" si="2"/>
         <v>3.9742270724558895E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <f t="shared" si="3"/>
+        <v>2.3947368421052634E-2</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="4"/>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="5"/>
+        <v>0.23728070175438598</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>10</v>
       </c>
       <c r="B24">
         <v>75</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24">
         <v>0.94199999999999995</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <f t="shared" si="0"/>
         <v>1013250</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <f t="shared" si="1"/>
         <v>348.15</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <f t="shared" si="2"/>
         <v>7.948454144911779E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <f t="shared" si="3"/>
+        <v>2.1973684210526315E-2</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="4"/>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="5"/>
+        <v>0.23530701754385966</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>15</v>
       </c>
       <c r="B25">
         <v>75</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25">
         <v>0.90890000000000004</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <f t="shared" si="0"/>
         <v>1519875</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <f t="shared" si="1"/>
         <v>348.15</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <f t="shared" si="2"/>
         <v>0.1192268121736767</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <f t="shared" si="3"/>
+        <v>2.1315789473684212E-2</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="4"/>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="5"/>
+        <v>0.23464912280701755</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>20</v>
       </c>
       <c r="B26">
         <v>75</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26">
         <v>0.87290000000000001</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <f t="shared" si="0"/>
         <v>2026500</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <f t="shared" si="1"/>
         <v>348.15</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <f t="shared" si="2"/>
         <v>0.15896908289823558</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <f t="shared" si="3"/>
+        <v>2.0986842105263158E-2</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="4"/>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="5"/>
+        <v>0.23432017543859651</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27">
         <v>75</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27">
         <v>0.83399999999999996</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <f t="shared" si="0"/>
         <v>2533125</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <f t="shared" si="1"/>
         <v>348.15</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <f t="shared" si="2"/>
         <v>0.19871135362279449</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H27">
+        <f t="shared" si="3"/>
+        <v>2.0789473684210528E-2</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="4"/>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="5"/>
+        <v>0.23412280701754387</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>30</v>
       </c>
       <c r="B28">
         <v>75</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28">
         <v>0.79249999999999998</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <f t="shared" si="0"/>
         <v>3039750</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <f t="shared" si="1"/>
         <v>348.15</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <f t="shared" si="2"/>
         <v>0.2384536243473534</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <f t="shared" si="3"/>
+        <v>2.0657894736842108E-2</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="4"/>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="5"/>
+        <v>0.23399122807017544</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>35</v>
       </c>
       <c r="B29">
         <v>75</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29">
         <v>0.74350000000000005</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <f t="shared" si="0"/>
         <v>3546375</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <f t="shared" si="1"/>
         <v>348.15</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <f t="shared" si="2"/>
         <v>0.27819589507191228</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <f t="shared" si="3"/>
+        <v>2.056390977443609E-2</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="4"/>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="5"/>
+        <v>0.23389724310776944</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>5</v>
       </c>
       <c r="B30">
         <v>100</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30">
         <v>0.97870000000000001</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <f t="shared" si="0"/>
         <v>506625</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <f t="shared" si="1"/>
         <v>373.15</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <f t="shared" si="2"/>
         <v>2.7809737812049807E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <f t="shared" si="3"/>
+        <v>2.3947368421052634E-2</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="5"/>
+        <v>0.23394736842105265</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>10</v>
       </c>
       <c r="B31">
         <v>100</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31">
         <v>0.95599999999999996</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <f t="shared" si="0"/>
         <v>1013250</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <f t="shared" si="1"/>
         <v>373.15</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <f t="shared" si="2"/>
         <v>5.5619475624099614E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <f t="shared" si="3"/>
+        <v>2.1973684210526315E-2</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="5"/>
+        <v>0.23197368421052633</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>15</v>
       </c>
       <c r="B32">
         <v>100</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32">
         <v>0.93179999999999996</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <f t="shared" si="0"/>
         <v>1519875</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <f t="shared" si="1"/>
         <v>373.15</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <f t="shared" si="2"/>
         <v>8.3429213436149424E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <f t="shared" si="3"/>
+        <v>2.1315789473684212E-2</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="5"/>
+        <v>0.23131578947368422</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>20</v>
       </c>
       <c r="B33">
         <v>100</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33">
         <v>0.90610000000000002</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <f t="shared" si="0"/>
         <v>2026500</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <f t="shared" si="1"/>
         <v>373.15</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <f t="shared" si="2"/>
         <v>0.11123895124819923</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H33">
+        <f t="shared" si="3"/>
+        <v>2.0986842105263158E-2</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="5"/>
+        <v>0.23098684210526318</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>25</v>
       </c>
       <c r="B34">
         <v>100</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34">
         <v>0.87880000000000003</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <f t="shared" si="0"/>
         <v>2533125</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <f t="shared" si="1"/>
         <v>373.15</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <f t="shared" si="2"/>
         <v>0.13904868906024903</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H34">
+        <f t="shared" si="3"/>
+        <v>2.0789473684210528E-2</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="5"/>
+        <v>0.23078947368421054</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>30</v>
       </c>
       <c r="B35">
         <v>100</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35">
         <v>0.85019999999999996</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <f t="shared" si="0"/>
         <v>3039750</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <f t="shared" si="1"/>
         <v>373.15</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <f t="shared" si="2"/>
         <v>0.16685842687229885</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H35">
+        <f t="shared" si="3"/>
+        <v>2.0657894736842108E-2</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="5"/>
+        <v>0.23065789473684212</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
         <v>100</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36">
         <v>0.81989999999999996</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <f t="shared" si="0"/>
         <v>3546375</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <f t="shared" si="1"/>
         <v>373.15</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <f t="shared" si="2"/>
         <v>0.19466816468434867</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H36">
+        <f t="shared" si="3"/>
+        <v>2.056390977443609E-2</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="5"/>
+        <v>0.23056390977443611</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>40</v>
       </c>
       <c r="B37">
         <v>100</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37">
         <v>0.78820000000000001</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <f t="shared" si="0"/>
         <v>4053000</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <f t="shared" si="1"/>
         <v>373.15</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <f t="shared" si="2"/>
         <v>0.22247790249639846</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H37">
+        <f t="shared" si="3"/>
+        <v>2.0493421052631581E-2</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="5"/>
+        <v>0.2304934210526316</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>45</v>
       </c>
       <c r="B38">
         <v>100</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38">
         <v>0.754</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <f t="shared" si="0"/>
         <v>4559625</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <f t="shared" si="1"/>
         <v>373.15</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <f t="shared" si="2"/>
         <v>0.25028764030844824</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H38">
+        <f t="shared" si="3"/>
+        <v>2.0438596491228068E-2</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="5"/>
+        <v>0.23043859649122808</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>50</v>
       </c>
       <c r="B39">
         <v>100</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39">
         <v>0.71740000000000004</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <f t="shared" si="0"/>
         <v>5066250</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <f t="shared" si="1"/>
         <v>373.15</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <f t="shared" si="2"/>
         <v>0.27809737812049806</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H39">
+        <f t="shared" si="3"/>
+        <v>2.0394736842105264E-2</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="5"/>
+        <v>0.23039473684210529</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>55</v>
       </c>
       <c r="B40">
         <v>100</v>
       </c>
-      <c r="C40">
+      <c r="C40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40">
         <v>0.6764</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <f t="shared" si="0"/>
         <v>5572875</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <f t="shared" si="1"/>
         <v>373.15</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <f t="shared" si="2"/>
         <v>0.30590711593254788</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H40">
+        <f t="shared" si="3"/>
+        <v>2.0358851674641149E-2</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="5"/>
+        <v>0.23035885167464118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>60</v>
       </c>
       <c r="B41">
         <v>100</v>
       </c>
-      <c r="C41">
+      <c r="C41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41">
         <v>0.629</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <f t="shared" si="0"/>
         <v>6079500</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <f t="shared" si="1"/>
         <v>373.15</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <f t="shared" si="2"/>
         <v>0.3337168537445977</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H41">
+        <f t="shared" si="3"/>
+        <v>2.0328947368421054E-2</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="5"/>
+        <v>0.23032894736842108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5</v>
       </c>
       <c r="B42">
         <v>125</v>
       </c>
-      <c r="C42">
+      <c r="C42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42">
         <v>0.98340000000000005</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <f t="shared" si="0"/>
         <v>506625</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <f t="shared" si="1"/>
         <v>398.15</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <f t="shared" si="2"/>
         <v>2.0850842475582342E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H42">
+        <f t="shared" si="3"/>
+        <v>2.3947368421052634E-2</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="4"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="5"/>
+        <v>0.23194736842105265</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>10</v>
       </c>
       <c r="B43">
         <v>125</v>
       </c>
-      <c r="C43">
+      <c r="C43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43">
         <v>0.96599999999999997</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <f t="shared" si="0"/>
         <v>1013250</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <f t="shared" si="1"/>
         <v>398.15</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <f t="shared" si="2"/>
         <v>4.1701684951164684E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H43">
+        <f t="shared" si="3"/>
+        <v>2.1973684210526315E-2</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="4"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="5"/>
+        <v>0.22997368421052633</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>15</v>
       </c>
       <c r="B44">
         <v>125</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44">
         <v>0.94769999999999999</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <f t="shared" si="0"/>
         <v>1519875</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <f t="shared" si="1"/>
         <v>398.15</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <f t="shared" si="2"/>
         <v>6.2552527426747023E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H44">
+        <f t="shared" si="3"/>
+        <v>2.1315789473684212E-2</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="4"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="5"/>
+        <v>0.22931578947368422</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>20</v>
       </c>
       <c r="B45">
         <v>125</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45">
         <v>0.92859999999999998</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <f t="shared" si="0"/>
         <v>2026500</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <f t="shared" si="1"/>
         <v>398.15</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <f t="shared" si="2"/>
         <v>8.3403369902329369E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H45">
+        <f t="shared" si="3"/>
+        <v>2.0986842105263158E-2</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="4"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="5"/>
+        <v>0.22898684210526318</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>25</v>
       </c>
       <c r="B46">
         <v>125</v>
       </c>
-      <c r="C46">
+      <c r="C46" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46">
         <v>0.90859999999999996</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <f t="shared" si="0"/>
         <v>2533125</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <f t="shared" si="1"/>
         <v>398.15</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <f t="shared" si="2"/>
         <v>0.1042542123779117</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H46">
+        <f t="shared" si="3"/>
+        <v>2.0789473684210528E-2</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="4"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="5"/>
+        <v>0.22878947368421054</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>30</v>
       </c>
       <c r="B47">
         <v>125</v>
       </c>
-      <c r="C47">
+      <c r="C47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47">
         <v>0.88780000000000003</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <f t="shared" si="0"/>
         <v>3039750</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <f t="shared" si="1"/>
         <v>398.15</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <f t="shared" si="2"/>
         <v>0.12510505485349405</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H47">
+        <f t="shared" si="3"/>
+        <v>2.0657894736842108E-2</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="4"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="5"/>
+        <v>0.22865789473684212</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>35</v>
       </c>
       <c r="B48">
         <v>125</v>
       </c>
-      <c r="C48">
+      <c r="C48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48">
         <v>0.86619999999999997</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <f t="shared" si="0"/>
         <v>3546375</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <f t="shared" si="1"/>
         <v>398.15</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <f t="shared" si="2"/>
         <v>0.14595589732907638</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H48">
+        <f t="shared" si="3"/>
+        <v>2.056390977443609E-2</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="4"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="5"/>
+        <v>0.22856390977443611</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>40</v>
       </c>
       <c r="B49">
         <v>125</v>
       </c>
-      <c r="C49">
+      <c r="C49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49">
         <v>0.84370000000000001</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <f t="shared" si="0"/>
         <v>4053000</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <f t="shared" si="1"/>
         <v>398.15</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <f t="shared" si="2"/>
         <v>0.16680673980465874</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H49">
+        <f t="shared" si="3"/>
+        <v>2.0493421052631581E-2</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="4"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="5"/>
+        <v>0.2284934210526316</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>45</v>
       </c>
       <c r="B50">
         <v>125</v>
       </c>
-      <c r="C50">
+      <c r="C50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50">
         <v>0.82040000000000002</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <f t="shared" si="0"/>
         <v>4559625</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <f t="shared" si="1"/>
         <v>398.15</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <f t="shared" si="2"/>
         <v>0.18765758228024107</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H50">
+        <f t="shared" si="3"/>
+        <v>2.0438596491228068E-2</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="4"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="5"/>
+        <v>0.22843859649122808</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51">
         <v>125</v>
       </c>
-      <c r="C51">
+      <c r="C51" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51">
         <v>0.79620000000000002</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <f t="shared" si="0"/>
         <v>5066250</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <f t="shared" si="1"/>
         <v>398.15</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <f t="shared" si="2"/>
         <v>0.2085084247558234</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H51">
+        <f t="shared" si="3"/>
+        <v>2.0394736842105264E-2</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="4"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="5"/>
+        <v>0.22839473684210529</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>55</v>
       </c>
       <c r="B52">
         <v>125</v>
       </c>
-      <c r="C52">
+      <c r="C52" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52">
         <v>0.7712</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <f t="shared" si="0"/>
         <v>5572875</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <f t="shared" si="1"/>
         <v>398.15</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <f t="shared" si="2"/>
         <v>0.22935926723140573</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H52">
+        <f t="shared" si="3"/>
+        <v>2.0358851674641149E-2</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="4"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="5"/>
+        <v>0.22835885167464118</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>60</v>
       </c>
       <c r="B53">
         <v>125</v>
       </c>
-      <c r="C53">
+      <c r="C53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53">
         <v>0.74460000000000004</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <f t="shared" si="0"/>
         <v>6079500</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <f t="shared" si="1"/>
         <v>398.15</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <f t="shared" si="2"/>
         <v>0.25021010970698809</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H53">
+        <f t="shared" si="3"/>
+        <v>2.0328947368421054E-2</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="4"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="5"/>
+        <v>0.22832894736842108</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>65</v>
       </c>
       <c r="B54">
         <v>125</v>
       </c>
-      <c r="C54">
+      <c r="C54" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54">
         <v>0.71699999999999997</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <f t="shared" si="0"/>
         <v>6586125</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <f t="shared" si="1"/>
         <v>398.15</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <f t="shared" si="2"/>
         <v>0.27106095218257042</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H54">
+        <f t="shared" si="3"/>
+        <v>2.0303643724696358E-2</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="4"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="5"/>
+        <v>0.22830364372469639</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>70</v>
       </c>
       <c r="B55">
         <v>125</v>
       </c>
-      <c r="C55">
+      <c r="C55" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55">
         <v>0.68730000000000002</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <f t="shared" si="0"/>
         <v>7092750</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <f t="shared" si="1"/>
         <v>398.15</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <f t="shared" si="2"/>
         <v>0.29191179465815276</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H55">
+        <f t="shared" si="3"/>
+        <v>2.0281954887218043E-2</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="4"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="5"/>
+        <v>0.22828195488721806</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>75</v>
       </c>
       <c r="B56">
         <v>125</v>
       </c>
-      <c r="C56">
+      <c r="C56" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56">
         <v>0.65559999999999996</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <f t="shared" si="0"/>
         <v>7599375</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <f t="shared" si="1"/>
         <v>398.15</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <f t="shared" si="2"/>
         <v>0.31276263713373509</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H56">
+        <f t="shared" si="3"/>
+        <v>2.0263157894736844E-2</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="4"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="5"/>
+        <v>0.22826315789473686</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>80</v>
       </c>
       <c r="B57">
         <v>125</v>
       </c>
-      <c r="C57">
+      <c r="C57" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57">
         <v>0.62050000000000005</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <f t="shared" si="0"/>
         <v>8106000</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <f t="shared" si="1"/>
         <v>398.15</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <f t="shared" si="2"/>
         <v>0.33361347960931748</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H57">
+        <f t="shared" si="3"/>
+        <v>2.0246710526315791E-2</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="4"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="5"/>
+        <v>0.22824671052631582</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>85</v>
       </c>
       <c r="B58">
         <v>125</v>
       </c>
-      <c r="C58">
+      <c r="C58" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58">
         <v>0.58130000000000004</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <f t="shared" si="0"/>
         <v>8612625</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <f t="shared" si="1"/>
         <v>398.15</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <f t="shared" si="2"/>
         <v>0.35446432208489981</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H58">
+        <f t="shared" si="3"/>
+        <v>2.0232198142414861E-2</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="4"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="5"/>
+        <v>0.22823219814241488</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>90</v>
       </c>
       <c r="B59">
         <v>125</v>
       </c>
-      <c r="C59">
+      <c r="C59" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59">
         <v>0.53500000000000003</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <f t="shared" si="0"/>
         <v>9119250</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <f t="shared" si="1"/>
         <v>398.15</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <f t="shared" si="2"/>
         <v>0.37531516456048214</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H59">
+        <f t="shared" si="3"/>
+        <v>2.0219298245614036E-2</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="4"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="5"/>
+        <v>0.22821929824561404</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>95</v>
       </c>
       <c r="B60">
         <v>125</v>
       </c>
-      <c r="C60">
+      <c r="C60" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60">
         <v>0.47199999999999998</v>
       </c>
-      <c r="D60">
+      <c r="E60">
         <f t="shared" si="0"/>
         <v>9625875</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <f t="shared" si="1"/>
         <v>398.15</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <f t="shared" si="2"/>
         <v>0.39616600703606447</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="3"/>
+        <v>2.0207756232686981E-2</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="4"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="5"/>
+        <v>0.22820775623268699</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61">
+        <v>25</v>
+      </c>
+      <c r="C61">
+        <v>0.2</v>
+      </c>
+      <c r="D61">
+        <v>0.94769999999999999</v>
+      </c>
+      <c r="E61">
+        <f>G61*D61*488.209556616782*F61</f>
+        <v>469861.51539083658</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="1"/>
+        <v>298.14999999999998</v>
+      </c>
+      <c r="G61">
+        <f>C61*0.01703052*1000</f>
+        <v>3.406104</v>
+      </c>
+      <c r="H61">
+        <f>0.02+(0.1/760*101325)/E61*100 + (0.05/760*101325)/E61*100</f>
+        <v>2.4256223293053276E-2</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="4"/>
+        <v>0.04</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="5"/>
+        <v>0.26425622329305326</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62">
+        <v>25</v>
+      </c>
+      <c r="C62">
+        <v>0.4</v>
+      </c>
+      <c r="D62">
+        <v>0.89259999999999995</v>
+      </c>
+      <c r="E62">
+        <f t="shared" ref="E62:E111" si="6">G62*D62*488.209556616782*F62</f>
+        <v>885086.81784923642</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="1"/>
+        <v>298.14999999999998</v>
+      </c>
+      <c r="G62">
+        <f t="shared" ref="G62:G111" si="7">C62*0.01703052*1000</f>
+        <v>6.812208</v>
+      </c>
+      <c r="H62">
+        <f t="shared" ref="H62:H111" si="8">0.02+(0.1/760*101325)/E62*100 + (0.05/760*101325)/E62*100</f>
+        <v>2.2259479506400733E-2</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="4"/>
+        <v>0.04</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="5"/>
+        <v>0.26225947950640072</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B63">
+        <v>25</v>
+      </c>
+      <c r="C63">
+        <v>0.45</v>
+      </c>
+      <c r="D63">
+        <v>0.87150000000000005</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="6"/>
+        <v>972184.97308431647</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="1"/>
+        <v>298.14999999999998</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="7"/>
+        <v>7.6637339999999998</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="8"/>
+        <v>2.205705249688358E-2</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="4"/>
+        <v>0.04</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="5"/>
+        <v>0.2620570524968836</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64">
+        <v>25</v>
+      </c>
+      <c r="C64">
+        <v>0.5</v>
+      </c>
+      <c r="D64">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="6"/>
+        <v>1007696.0325333704</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="1"/>
+        <v>298.14999999999998</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="7"/>
+        <v>8.5152599999999996</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="8"/>
+        <v>2.1984562270517389E-2</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="4"/>
+        <v>0.04</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="5"/>
+        <v>0.26198456227051742</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65">
+        <v>50</v>
+      </c>
+      <c r="C65">
+        <v>0.2</v>
+      </c>
+      <c r="D65">
+        <v>0.95950000000000002</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="6"/>
+        <v>515600.48839128838</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="1"/>
+        <v>323.14999999999998</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="7"/>
+        <v>3.406104</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="8"/>
+        <v>2.3878653281643358E-2</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="4"/>
+        <v>0.02</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="5"/>
+        <v>0.24387865328164335</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66">
+        <v>50</v>
+      </c>
+      <c r="C66">
+        <v>0.4</v>
+      </c>
+      <c r="D66">
+        <v>0.91949999999999998</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="6"/>
+        <v>988211.87926167715</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="1"/>
+        <v>323.14999999999998</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="7"/>
+        <v>6.812208</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="8"/>
+        <v>2.2023691040639917E-2</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="4"/>
+        <v>0.02</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="5"/>
+        <v>0.24202369104063992</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67">
+        <v>50</v>
+      </c>
+      <c r="C67">
+        <v>0.5</v>
+      </c>
+      <c r="D67">
+        <v>0.8992</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="6"/>
+        <v>1207993.6403372758</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ref="F67:F111" si="9">B67+273.15</f>
+        <v>323.14999999999998</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="7"/>
+        <v>8.5152599999999996</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="8"/>
+        <v>2.1655501700950534E-2</v>
+      </c>
+      <c r="I67">
+        <f t="shared" ref="I67:I111" si="10">0.01/B67*100</f>
+        <v>0.02</v>
+      </c>
+      <c r="J67">
+        <f t="shared" ref="J67:J111" si="11">0.2+H67+I67</f>
+        <v>0.24165550170095054</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68">
+        <v>50</v>
+      </c>
+      <c r="C68">
+        <v>0.6</v>
+      </c>
+      <c r="D68">
+        <v>0.87980000000000003</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="6"/>
+        <v>1418317.7999582768</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="9"/>
+        <v>323.14999999999998</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="7"/>
+        <v>10.218312000000001</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="8"/>
+        <v>2.1410005237454271E-2</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="10"/>
+        <v>0.02</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="11"/>
+        <v>0.24141000523745426</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69">
+        <v>50</v>
+      </c>
+      <c r="C69">
+        <v>0.7</v>
+      </c>
+      <c r="D69">
+        <v>0.86029999999999995</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="6"/>
+        <v>1618029.0261288052</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="9"/>
+        <v>323.14999999999998</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="7"/>
+        <v>11.921364000000001</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="8"/>
+        <v>2.1235970117977718E-2</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="10"/>
+        <v>0.02</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="11"/>
+        <v>0.24123597011797773</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70">
+        <v>50</v>
+      </c>
+      <c r="C70">
+        <v>0.8</v>
+      </c>
+      <c r="D70">
+        <v>0.83930000000000005</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="6"/>
+        <v>1804037.4774645474</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="9"/>
+        <v>323.14999999999998</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="7"/>
+        <v>13.624416</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="8"/>
+        <v>2.1108533249057787E-2</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="10"/>
+        <v>0.02</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="11"/>
+        <v>0.24110853324905779</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71">
+        <v>50</v>
+      </c>
+      <c r="C71">
+        <v>0.85</v>
+      </c>
+      <c r="D71">
+        <v>0.82750000000000001</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="6"/>
+        <v>1889841.0292976678</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="9"/>
+        <v>323.14999999999998</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="7"/>
+        <v>14.475942</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="8"/>
+        <v>2.1058203042114605E-2</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="10"/>
+        <v>0.02</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="11"/>
+        <v>0.24105820304211462</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>10</v>
+      </c>
+      <c r="B72">
+        <v>50</v>
+      </c>
+      <c r="C72">
+        <v>0.9</v>
+      </c>
+      <c r="D72">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="6"/>
+        <v>1968363.3027381857</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="9"/>
+        <v>323.14999999999998</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="7"/>
+        <v>15.327468</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="8"/>
+        <v>2.101598903186918E-2</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="10"/>
+        <v>0.02</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="11"/>
+        <v>0.24101598903186919</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73">
+        <v>50</v>
+      </c>
+      <c r="C73">
+        <v>0.95</v>
+      </c>
+      <c r="D73">
+        <v>0.79459999999999997</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="6"/>
+        <v>2028198.7528500878</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="9"/>
+        <v>323.14999999999998</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="7"/>
+        <v>16.178993999999999</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="8"/>
+        <v>2.0986015558635739E-2</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="10"/>
+        <v>0.02</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="11"/>
+        <v>0.24098601555863575</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>10</v>
+      </c>
+      <c r="B74">
+        <v>50</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>0.75449999999999995</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="6"/>
+        <v>2027204.6299699168</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="9"/>
+        <v>323.14999999999998</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="7"/>
+        <v>17.030519999999999</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="8"/>
+        <v>2.0986499091779139E-2</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="10"/>
+        <v>0.02</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="11"/>
+        <v>0.24098649909177913</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>10</v>
+      </c>
+      <c r="B75">
+        <v>75</v>
+      </c>
+      <c r="C75">
+        <v>0.25</v>
+      </c>
+      <c r="D75">
+        <v>0.95989999999999998</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="6"/>
+        <v>694650.87151839898</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="9"/>
+        <v>348.15</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="7"/>
+        <v>4.2576299999999998</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="8"/>
+        <v>2.2878907388317903E-2</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="10"/>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="11"/>
+        <v>0.23621224072165126</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>10</v>
+      </c>
+      <c r="B76">
+        <v>75</v>
+      </c>
+      <c r="C76">
+        <v>0.5</v>
+      </c>
+      <c r="D76">
+        <v>0.92030000000000001</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="6"/>
+        <v>1331987.0758586992</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="9"/>
+        <v>348.15</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="7"/>
+        <v>8.5152599999999996</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="8"/>
+        <v>2.1501392590484818E-2</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="10"/>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="11"/>
+        <v>0.23483472592381816</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>10</v>
+      </c>
+      <c r="B77">
+        <v>75</v>
+      </c>
+      <c r="C77">
+        <v>0.75</v>
+      </c>
+      <c r="D77">
+        <v>0.88109999999999999</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="6"/>
+        <v>1912877.0170690536</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="9"/>
+        <v>348.15</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="7"/>
+        <v>12.77289</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="8"/>
+        <v>2.1045459539986516E-2</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="10"/>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="11"/>
+        <v>0.23437879287331986</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>10</v>
+      </c>
+      <c r="B78">
+        <v>75</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>0.84240000000000004</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="6"/>
+        <v>2438478.5672136662</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="9"/>
+        <v>348.15</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="7"/>
+        <v>17.030519999999999</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="8"/>
+        <v>2.0820116097473397E-2</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="10"/>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="11"/>
+        <v>0.23415344943080674</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>10</v>
+      </c>
+      <c r="B79">
+        <v>75</v>
+      </c>
+      <c r="C79">
+        <v>1.25</v>
+      </c>
+      <c r="D79">
+        <v>0.80420000000000003</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="6"/>
+        <v>2909877.2313527269</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="9"/>
+        <v>348.15</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="7"/>
+        <v>21.288149999999998</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="8"/>
+        <v>2.0687257697599194E-2</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="10"/>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="11"/>
+        <v>0.23402059103093253</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B80">
+        <v>75</v>
+      </c>
+      <c r="C80">
+        <v>1.5</v>
+      </c>
+      <c r="D80">
+        <v>0.76639999999999997</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="6"/>
+        <v>3327724.3125223527</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="9"/>
+        <v>348.15</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="7"/>
+        <v>25.545780000000001</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="8"/>
+        <v>2.0600961900236248E-2</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="10"/>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="11"/>
+        <v>0.23393429523356959</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>10</v>
+      </c>
+      <c r="B81">
+        <v>75</v>
+      </c>
+      <c r="C81">
+        <v>1.75</v>
+      </c>
+      <c r="D81">
+        <v>0.72019999999999995</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="6"/>
+        <v>3648310.1402988411</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="9"/>
+        <v>348.15</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="7"/>
+        <v>29.803410000000003</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="8"/>
+        <v>2.0548153925902798E-2</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="10"/>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="11"/>
+        <v>0.23388148725923616</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>10</v>
+      </c>
+      <c r="B82">
+        <v>100</v>
+      </c>
+      <c r="C82">
+        <v>0.25</v>
+      </c>
+      <c r="D82">
+        <v>0.96679999999999999</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="6"/>
+        <v>749884.33516546991</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="9"/>
+        <v>373.15</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="7"/>
+        <v>4.2576299999999998</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="8"/>
+        <v>2.2666858650773794E-2</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="10"/>
+        <v>0.01</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="11"/>
+        <v>0.2326668586507738</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>10</v>
+      </c>
+      <c r="B83">
+        <v>100</v>
+      </c>
+      <c r="C83">
+        <v>0.5</v>
+      </c>
+      <c r="D83">
+        <v>0.93410000000000004</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="6"/>
+        <v>1449042.1131114305</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="9"/>
+        <v>373.15</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="7"/>
+        <v>8.5152599999999996</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="8"/>
+        <v>2.1380108630536403E-2</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="10"/>
+        <v>0.01</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="11"/>
+        <v>0.23138010863053643</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>10</v>
+      </c>
+      <c r="B84">
+        <v>100</v>
+      </c>
+      <c r="C84">
+        <v>0.75</v>
+      </c>
+      <c r="D84">
+        <v>0.90169999999999995</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="6"/>
+        <v>2098171.4057262233</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="9"/>
+        <v>373.15</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="7"/>
+        <v>12.77289</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="8"/>
+        <v>2.0953132580521276E-2</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="10"/>
+        <v>0.01</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="11"/>
+        <v>0.2309531325805213</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>10</v>
+      </c>
+      <c r="B85">
+        <v>100</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>0.86980000000000002</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="6"/>
+        <v>2698590.7932433831</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="9"/>
+        <v>373.15</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="7"/>
+        <v>17.030519999999999</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="8"/>
+        <v>2.0741066608291593E-2</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="10"/>
+        <v>0.01</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="11"/>
+        <v>0.23074106660829161</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>10</v>
+      </c>
+      <c r="B86">
+        <v>100</v>
+      </c>
+      <c r="C86">
+        <v>1.25</v>
+      </c>
+      <c r="D86">
+        <v>0.83840000000000003</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="6"/>
+        <v>3251463.7288101465</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="9"/>
+        <v>373.15</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="7"/>
+        <v>21.288149999999998</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="8"/>
+        <v>2.061505699989697E-2</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="10"/>
+        <v>0.01</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="11"/>
+        <v>0.23061505699989698</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>10</v>
+      </c>
+      <c r="B87">
+        <v>100</v>
+      </c>
+      <c r="C87">
+        <v>1.5</v>
+      </c>
+      <c r="D87">
+        <v>0.80730000000000002</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="6"/>
+        <v>3757022.9030559608</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="9"/>
+        <v>373.15</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="7"/>
+        <v>25.545780000000001</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="8"/>
+        <v>2.0532292609845185E-2</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="10"/>
+        <v>0.01</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="11"/>
+        <v>0.2305322926098452</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>10</v>
+      </c>
+      <c r="B88">
+        <v>100</v>
+      </c>
+      <c r="C88">
+        <v>1.75</v>
+      </c>
+      <c r="D88">
+        <v>0.77669999999999995</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="6"/>
+        <v>4217052.277473256</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="9"/>
+        <v>373.15</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="7"/>
+        <v>29.803410000000003</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="8"/>
+        <v>2.0474225927195295E-2</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="10"/>
+        <v>0.01</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="11"/>
+        <v>0.23047422592719533</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>10</v>
+      </c>
+      <c r="B89">
+        <v>100</v>
+      </c>
+      <c r="C89">
+        <v>2</v>
+      </c>
+      <c r="D89">
+        <v>0.74760000000000004</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="6"/>
+        <v>4638920.3886611946</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="9"/>
+        <v>373.15</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="7"/>
+        <v>34.061039999999998</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="8"/>
+        <v>2.0431099341821846E-2</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="10"/>
+        <v>0.01</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="11"/>
+        <v>0.23043109934182188</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>10</v>
+      </c>
+      <c r="B90">
+        <v>100</v>
+      </c>
+      <c r="C90">
+        <v>2.25</v>
+      </c>
+      <c r="D90">
+        <v>0.71919999999999995</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="6"/>
+        <v>5020533.0209547505</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="9"/>
+        <v>373.15</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="7"/>
+        <v>38.318669999999997</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="8"/>
+        <v>2.0398331316210622E-2</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="10"/>
+        <v>0.01</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="11"/>
+        <v>0.23039833131621065</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>10</v>
+      </c>
+      <c r="B91">
+        <v>100</v>
+      </c>
+      <c r="C91">
+        <v>2.5</v>
+      </c>
+      <c r="D91">
+        <v>0.69169999999999998</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="6"/>
+        <v>5365070.2796230391</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="9"/>
+        <v>373.15</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="7"/>
+        <v>42.576299999999996</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="8"/>
+        <v>2.0372751039983823E-2</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="10"/>
+        <v>0.01</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="11"/>
+        <v>0.23037275103998384</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>10</v>
+      </c>
+      <c r="B92">
+        <v>100</v>
+      </c>
+      <c r="C92">
+        <v>2.75</v>
+      </c>
+      <c r="D92">
+        <v>0.66549999999999998</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="6"/>
+        <v>5678039.1762296464</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="9"/>
+        <v>373.15</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="7"/>
+        <v>46.833930000000002</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="8"/>
+        <v>2.0352205306135934E-2</v>
+      </c>
+      <c r="I92">
+        <f t="shared" si="10"/>
+        <v>0.01</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="11"/>
+        <v>0.23035220530613595</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>10</v>
+      </c>
+      <c r="B93">
+        <v>100</v>
+      </c>
+      <c r="C93">
+        <v>3</v>
+      </c>
+      <c r="D93">
+        <v>0.64049999999999996</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="6"/>
+        <v>5961533.9264395963</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="9"/>
+        <v>373.15</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="7"/>
+        <v>51.091560000000001</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="8"/>
+        <v>2.0335456537024215E-2</v>
+      </c>
+      <c r="I93">
+        <f t="shared" si="10"/>
+        <v>0.01</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="11"/>
+        <v>0.23033545653702422</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>10</v>
+      </c>
+      <c r="B94">
+        <v>125</v>
+      </c>
+      <c r="C94">
+        <v>0.25</v>
+      </c>
+      <c r="D94">
+        <v>0.97250000000000003</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="6"/>
+        <v>804841.8002259311</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="9"/>
+        <v>398.15</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="7"/>
+        <v>4.2576299999999998</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="8"/>
+        <v>2.2484756042435178E-2</v>
+      </c>
+      <c r="I94">
+        <f t="shared" si="10"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="11"/>
+        <v>0.23048475604243521</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>10</v>
+      </c>
+      <c r="B95">
+        <v>125</v>
+      </c>
+      <c r="C95">
+        <v>0.5</v>
+      </c>
+      <c r="D95">
+        <v>0.94530000000000003</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="6"/>
+        <v>1564662.1156885813</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="9"/>
+        <v>398.15</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="7"/>
+        <v>8.5152599999999996</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="8"/>
+        <v>2.1278126124652606E-2</v>
+      </c>
+      <c r="I95">
+        <f t="shared" si="10"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="11"/>
+        <v>0.22927812612465262</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>10</v>
+      </c>
+      <c r="B96">
+        <v>125</v>
+      </c>
+      <c r="C96">
+        <v>0.75</v>
+      </c>
+      <c r="D96">
+        <v>0.91830000000000001</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="6"/>
+        <v>2279957.5068816631</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="9"/>
+        <v>398.15</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="7"/>
+        <v>12.77289</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="8"/>
+        <v>2.0877137192372941E-2</v>
+      </c>
+      <c r="I96">
+        <f t="shared" si="10"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="11"/>
+        <v>0.22887713719237296</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>10</v>
+      </c>
+      <c r="B97">
+        <v>125</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>0.89159999999999995</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="6"/>
+        <v>2951555.5746280313</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="9"/>
+        <v>398.15</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="7"/>
+        <v>17.030519999999999</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="8"/>
+        <v>2.0677553065070717E-2</v>
+      </c>
+      <c r="I97">
+        <f t="shared" si="10"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="11"/>
+        <v>0.22867755306507073</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>10</v>
+      </c>
+      <c r="B98">
+        <v>125</v>
+      </c>
+      <c r="C98">
+        <v>1.25</v>
+      </c>
+      <c r="D98">
+        <v>0.86509999999999998</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="6"/>
+        <v>3579787.3592568277</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="9"/>
+        <v>398.15</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="7"/>
+        <v>21.288149999999998</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="8"/>
+        <v>2.0558646457350182E-2</v>
+      </c>
+      <c r="I98">
+        <f t="shared" si="10"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="11"/>
+        <v>0.22855864645735019</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>10</v>
+      </c>
+      <c r="B99">
+        <v>125</v>
+      </c>
+      <c r="C99">
+        <v>1.5</v>
+      </c>
+      <c r="D99">
+        <v>0.83879999999999999</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="6"/>
+        <v>4165149.4212617651</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="9"/>
+        <v>398.15</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="7"/>
+        <v>25.545780000000001</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="8"/>
+        <v>2.0480135362277104E-2</v>
+      </c>
+      <c r="I99">
+        <f t="shared" si="10"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="11"/>
+        <v>0.22848013536227713</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>10</v>
+      </c>
+      <c r="B100">
+        <v>125</v>
+      </c>
+      <c r="C100">
+        <v>1.75</v>
+      </c>
+      <c r="D100">
+        <v>0.81279999999999997</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="6"/>
+        <v>4708717.6417125529</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="9"/>
+        <v>398.15</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="7"/>
+        <v>29.803410000000003</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="8"/>
+        <v>2.0424709162554171E-2</v>
+      </c>
+      <c r="I100">
+        <f t="shared" si="10"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="11"/>
+        <v>0.2284247091625542</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>10</v>
+      </c>
+      <c r="B101">
+        <v>125</v>
+      </c>
+      <c r="C101">
+        <v>2</v>
+      </c>
+      <c r="D101">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="6"/>
+        <v>5217195.587274313</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="9"/>
+        <v>398.15</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="7"/>
+        <v>34.061039999999998</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="8"/>
+        <v>2.0383316188335696E-2</v>
+      </c>
+      <c r="I101">
+        <f t="shared" si="10"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="11"/>
+        <v>0.22838331618833571</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>10</v>
+      </c>
+      <c r="B102">
+        <v>125</v>
+      </c>
+      <c r="C102">
+        <v>2.25</v>
+      </c>
+      <c r="D102">
+        <v>0.76429999999999998</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="6"/>
+        <v>5692817.7801687522</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="9"/>
+        <v>398.15</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="7"/>
+        <v>38.318669999999997</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="8"/>
+        <v>2.0351290978130782E-2</v>
+      </c>
+      <c r="I102">
+        <f t="shared" si="10"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J102">
+        <f t="shared" si="11"/>
+        <v>0.22835129097813081</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>10</v>
+      </c>
+      <c r="B103">
+        <v>125</v>
+      </c>
+      <c r="C103">
+        <v>2.5</v>
+      </c>
+      <c r="D103">
+        <v>0.74119999999999997</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="6"/>
+        <v>6134177.2989970185</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="9"/>
+        <v>398.15</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="7"/>
+        <v>42.576299999999996</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="8"/>
+        <v>2.032601527944795E-2</v>
+      </c>
+      <c r="I103">
+        <f t="shared" si="10"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J103">
+        <f t="shared" si="11"/>
+        <v>0.22832601527944796</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>10</v>
+      </c>
+      <c r="B104">
+        <v>125</v>
+      </c>
+      <c r="C104">
+        <v>2.75</v>
+      </c>
+      <c r="D104">
+        <v>0.71909999999999996</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="6"/>
+        <v>6546405.2688608086</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="9"/>
+        <v>398.15</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="7"/>
+        <v>46.833930000000002</v>
+      </c>
+      <c r="H104">
+        <f t="shared" si="8"/>
+        <v>2.0305486055962406E-2</v>
+      </c>
+      <c r="I104">
+        <f t="shared" si="10"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J104">
+        <f t="shared" si="11"/>
+        <v>0.22830548605596243</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>10</v>
+      </c>
+      <c r="B105">
+        <v>125</v>
+      </c>
+      <c r="C105">
+        <v>3</v>
+      </c>
+      <c r="D105">
+        <v>0.69750000000000001</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="6"/>
+        <v>6927018.8872915627</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="9"/>
+        <v>398.15</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="7"/>
+        <v>51.091560000000001</v>
+      </c>
+      <c r="H105">
+        <f t="shared" si="8"/>
+        <v>2.0288700746865975E-2</v>
+      </c>
+      <c r="I105">
+        <f t="shared" si="10"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J105">
+        <f t="shared" si="11"/>
+        <v>0.228288700746866</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>10</v>
+      </c>
+      <c r="B106">
+        <v>125</v>
+      </c>
+      <c r="C106">
+        <v>3.5</v>
+      </c>
+      <c r="D106">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="6"/>
+        <v>7600685.9570950652</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="9"/>
+        <v>398.15</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="7"/>
+        <v>59.606820000000006</v>
+      </c>
+      <c r="H106">
+        <f t="shared" si="8"/>
+        <v>2.026311250558234E-2</v>
+      </c>
+      <c r="I106">
+        <f t="shared" si="10"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J106">
+        <f t="shared" si="11"/>
+        <v>0.22826311250558234</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>10</v>
+      </c>
+      <c r="B107">
+        <v>125</v>
+      </c>
+      <c r="C107">
+        <v>4</v>
+      </c>
+      <c r="D107">
+        <v>0.61580000000000001</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="6"/>
+        <v>8154185.3874201076</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="9"/>
+        <v>398.15</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="7"/>
+        <v>68.122079999999997</v>
+      </c>
+      <c r="H107">
+        <f t="shared" si="8"/>
+        <v>2.0245252644047196E-2</v>
+      </c>
+      <c r="I107">
+        <f t="shared" si="10"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J107">
+        <f t="shared" si="11"/>
+        <v>0.22824525264404721</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>10</v>
+      </c>
+      <c r="B108">
+        <v>125</v>
+      </c>
+      <c r="C108">
+        <v>4.5</v>
+      </c>
+      <c r="D108">
+        <v>0.57909999999999995</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="6"/>
+        <v>8626745.4572699834</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="9"/>
+        <v>398.15</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="7"/>
+        <v>76.637339999999995</v>
+      </c>
+      <c r="H108">
+        <f t="shared" si="8"/>
+        <v>2.0231818075103918E-2</v>
+      </c>
+      <c r="I108">
+        <f t="shared" si="10"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J108">
+        <f t="shared" si="11"/>
+        <v>0.22823181807510393</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B109">
+        <v>125</v>
+      </c>
+      <c r="C109">
+        <v>5</v>
+      </c>
+      <c r="D109">
+        <v>0.54459999999999997</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="6"/>
+        <v>9014228.1625304278</v>
+      </c>
+      <c r="F109">
+        <f t="shared" si="9"/>
+        <v>398.15</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="7"/>
+        <v>85.152599999999993</v>
+      </c>
+      <c r="H109">
+        <f t="shared" si="8"/>
+        <v>2.022185321807457E-2</v>
+      </c>
+      <c r="I109">
+        <f t="shared" si="10"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J109">
+        <f t="shared" si="11"/>
+        <v>0.22822185321807459</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B110">
+        <v>125</v>
+      </c>
+      <c r="C110">
+        <v>5.5</v>
+      </c>
+      <c r="D110">
+        <v>0.51229999999999998</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="6"/>
+        <v>9327557.8340631146</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="9"/>
+        <v>398.15</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="7"/>
+        <v>93.667860000000005</v>
+      </c>
+      <c r="H110">
+        <f t="shared" si="8"/>
+        <v>2.021440076404701E-2</v>
+      </c>
+      <c r="I110">
+        <f t="shared" si="10"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J110">
+        <f t="shared" si="11"/>
+        <v>0.22821440076404703</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>10</v>
+      </c>
+      <c r="B111">
+        <v>125</v>
+      </c>
+      <c r="C111">
+        <v>6</v>
+      </c>
+      <c r="D111">
+        <v>0.48120000000000002</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="6"/>
+        <v>9557796.3829812165</v>
+      </c>
+      <c r="F111">
+        <f t="shared" si="9"/>
+        <v>398.15</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="7"/>
+        <v>102.18312</v>
+      </c>
+      <c r="H111">
+        <f t="shared" si="8"/>
+        <v>2.0209236046279114E-2</v>
+      </c>
+      <c r="I111">
+        <f t="shared" si="10"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J111">
+        <f t="shared" si="11"/>
+        <v>0.22820923604627913</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>50</v>
+      </c>
+      <c r="B112">
+        <v>25</v>
+      </c>
+      <c r="C112" t="s">
+        <v>10</v>
+      </c>
+      <c r="D112">
+        <v>5.7549999999999997E-2</v>
+      </c>
+      <c r="E112">
+        <f>A112*101325</f>
+        <v>5066250</v>
+      </c>
+      <c r="F112">
+        <f>B112+273.15</f>
+        <v>298.14999999999998</v>
+      </c>
+      <c r="G112">
+        <f>E112/(B112*488.209556616782*F112)</f>
+        <v>1.3922124654793071</v>
+      </c>
+      <c r="H112">
+        <f>0.02+0.1/760/A112*100 + 0.05/760/A112*100</f>
+        <v>2.0394736842105264E-2</v>
+      </c>
+      <c r="I112">
+        <f>0.01/B112*100</f>
+        <v>0.04</v>
+      </c>
+      <c r="J112">
+        <f>0.2+H112+I112</f>
+        <v>0.26039473684210529</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>75</v>
+      </c>
+      <c r="B113">
+        <v>25</v>
+      </c>
+      <c r="C113" t="s">
+        <v>10</v>
+      </c>
+      <c r="D113">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="E113">
+        <f t="shared" ref="E113:E153" si="12">A113*101325</f>
+        <v>7599375</v>
+      </c>
+      <c r="F113">
+        <f t="shared" ref="F113:F153" si="13">B113+273.15</f>
+        <v>298.14999999999998</v>
+      </c>
+      <c r="G113">
+        <f t="shared" ref="G113:G153" si="14">E113/(B113*488.209556616782*F113)</f>
+        <v>2.0883186982189605</v>
+      </c>
+      <c r="H113">
+        <f t="shared" ref="H113:H153" si="15">0.02+0.1/760/A113*100 + 0.05/760/A113*100</f>
+        <v>2.0263157894736844E-2</v>
+      </c>
+      <c r="I113">
+        <f t="shared" ref="I113:I153" si="16">0.01/B113*100</f>
+        <v>0.04</v>
+      </c>
+      <c r="J113">
+        <f t="shared" ref="J113:J153" si="17">0.2+H113+I113</f>
+        <v>0.26026315789473686</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>100</v>
+      </c>
+      <c r="B114">
+        <v>25</v>
+      </c>
+      <c r="C114" t="s">
+        <v>10</v>
+      </c>
+      <c r="D114">
+        <v>0.1143</v>
+      </c>
+      <c r="E114">
+        <f t="shared" si="12"/>
+        <v>10132500</v>
+      </c>
+      <c r="F114">
+        <f t="shared" si="13"/>
+        <v>298.14999999999998</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="14"/>
+        <v>2.7844249309586142</v>
+      </c>
+      <c r="H114">
+        <f t="shared" si="15"/>
+        <v>2.0197368421052631E-2</v>
+      </c>
+      <c r="I114">
+        <f t="shared" si="16"/>
+        <v>0.04</v>
+      </c>
+      <c r="J114">
+        <f t="shared" si="17"/>
+        <v>0.26019736842105262</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>150</v>
+      </c>
+      <c r="B115">
+        <v>25</v>
+      </c>
+      <c r="C115" t="s">
+        <v>10</v>
+      </c>
+      <c r="D115">
+        <v>0.17019999999999999</v>
+      </c>
+      <c r="E115">
+        <f t="shared" si="12"/>
+        <v>15198750</v>
+      </c>
+      <c r="F115">
+        <f t="shared" si="13"/>
+        <v>298.14999999999998</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="14"/>
+        <v>4.1766373964379211</v>
+      </c>
+      <c r="H115">
+        <f t="shared" si="15"/>
+        <v>2.0131578947368424E-2</v>
+      </c>
+      <c r="I115">
+        <f t="shared" si="16"/>
+        <v>0.04</v>
+      </c>
+      <c r="J115">
+        <f t="shared" si="17"/>
+        <v>0.26013157894736844</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>200</v>
+      </c>
+      <c r="B116">
+        <v>25</v>
+      </c>
+      <c r="C116" t="s">
+        <v>10</v>
+      </c>
+      <c r="D116">
+        <v>0.22544</v>
+      </c>
+      <c r="E116">
+        <f t="shared" si="12"/>
+        <v>20265000</v>
+      </c>
+      <c r="F116">
+        <f t="shared" si="13"/>
+        <v>298.14999999999998</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="14"/>
+        <v>5.5688498619172284</v>
+      </c>
+      <c r="H116">
+        <f t="shared" si="15"/>
+        <v>2.0098684210526317E-2</v>
+      </c>
+      <c r="I116">
+        <f t="shared" si="16"/>
+        <v>0.04</v>
+      </c>
+      <c r="J116">
+        <f t="shared" si="17"/>
+        <v>0.26009868421052634</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>250</v>
+      </c>
+      <c r="B117">
+        <v>25</v>
+      </c>
+      <c r="C117" t="s">
+        <v>10</v>
+      </c>
+      <c r="D117">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E117">
+        <f t="shared" si="12"/>
+        <v>25331250</v>
+      </c>
+      <c r="F117">
+        <f t="shared" si="13"/>
+        <v>298.14999999999998</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="14"/>
+        <v>6.9610623273965357</v>
+      </c>
+      <c r="H117">
+        <f t="shared" si="15"/>
+        <v>2.0078947368421054E-2</v>
+      </c>
+      <c r="I117">
+        <f t="shared" si="16"/>
+        <v>0.04</v>
+      </c>
+      <c r="J117">
+        <f t="shared" si="17"/>
+        <v>0.26007894736842108</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>300</v>
+      </c>
+      <c r="B118">
+        <v>25</v>
+      </c>
+      <c r="C118" t="s">
+        <v>10</v>
+      </c>
+      <c r="D118">
+        <v>0.33389999999999997</v>
+      </c>
+      <c r="E118">
+        <f t="shared" si="12"/>
+        <v>30397500</v>
+      </c>
+      <c r="F118">
+        <f t="shared" si="13"/>
+        <v>298.14999999999998</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="14"/>
+        <v>8.3532747928758422</v>
+      </c>
+      <c r="H118">
+        <f t="shared" si="15"/>
+        <v>2.006578947368421E-2</v>
+      </c>
+      <c r="I118">
+        <f t="shared" si="16"/>
+        <v>0.04</v>
+      </c>
+      <c r="J118">
+        <f t="shared" si="17"/>
+        <v>0.26006578947368419</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>400</v>
+      </c>
+      <c r="B119">
+        <v>25</v>
+      </c>
+      <c r="C119" t="s">
+        <v>10</v>
+      </c>
+      <c r="D119">
+        <v>0.43980000000000002</v>
+      </c>
+      <c r="E119">
+        <f t="shared" si="12"/>
+        <v>40530000</v>
+      </c>
+      <c r="F119">
+        <f t="shared" si="13"/>
+        <v>298.14999999999998</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="14"/>
+        <v>11.137699723834457</v>
+      </c>
+      <c r="H119">
+        <f t="shared" si="15"/>
+        <v>2.0049342105263161E-2</v>
+      </c>
+      <c r="I119">
+        <f t="shared" si="16"/>
+        <v>0.04</v>
+      </c>
+      <c r="J119">
+        <f t="shared" si="17"/>
+        <v>0.26004934210526315</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>500</v>
+      </c>
+      <c r="B120">
+        <v>25</v>
+      </c>
+      <c r="C120" t="s">
+        <v>10</v>
+      </c>
+      <c r="D120">
+        <v>0.54359999999999997</v>
+      </c>
+      <c r="E120">
+        <f t="shared" si="12"/>
+        <v>50662500</v>
+      </c>
+      <c r="F120">
+        <f t="shared" si="13"/>
+        <v>298.14999999999998</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="14"/>
+        <v>13.922124654793071</v>
+      </c>
+      <c r="H120">
+        <f t="shared" si="15"/>
+        <v>2.0039473684210527E-2</v>
+      </c>
+      <c r="I120">
+        <f t="shared" si="16"/>
+        <v>0.04</v>
+      </c>
+      <c r="J120">
+        <f t="shared" si="17"/>
+        <v>0.26003947368421054</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>50</v>
+      </c>
+      <c r="B121">
+        <v>50</v>
+      </c>
+      <c r="C121" t="s">
+        <v>10</v>
+      </c>
+      <c r="D121">
+        <v>5.672E-2</v>
+      </c>
+      <c r="E121">
+        <f t="shared" si="12"/>
+        <v>5066250</v>
+      </c>
+      <c r="F121">
+        <f t="shared" si="13"/>
+        <v>323.14999999999998</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="14"/>
+        <v>0.64225305056886184</v>
+      </c>
+      <c r="H121">
+        <f t="shared" si="15"/>
+        <v>2.0394736842105264E-2</v>
+      </c>
+      <c r="I121">
+        <f t="shared" si="16"/>
+        <v>0.02</v>
+      </c>
+      <c r="J121">
+        <f t="shared" si="17"/>
+        <v>0.24039473684210527</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>75</v>
+      </c>
+      <c r="B122">
+        <v>50</v>
+      </c>
+      <c r="C122" t="s">
+        <v>10</v>
+      </c>
+      <c r="D122">
+        <v>8.4589999999999999E-2</v>
+      </c>
+      <c r="E122">
+        <f t="shared" si="12"/>
+        <v>7599375</v>
+      </c>
+      <c r="F122">
+        <f t="shared" si="13"/>
+        <v>323.14999999999998</v>
+      </c>
+      <c r="G122">
+        <f t="shared" si="14"/>
+        <v>0.96337957585329281</v>
+      </c>
+      <c r="H122">
+        <f t="shared" si="15"/>
+        <v>2.0263157894736844E-2</v>
+      </c>
+      <c r="I122">
+        <f t="shared" si="16"/>
+        <v>0.02</v>
+      </c>
+      <c r="J122">
+        <f t="shared" si="17"/>
+        <v>0.24026315789473685</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>100</v>
+      </c>
+      <c r="B123">
+        <v>50</v>
+      </c>
+      <c r="C123" t="s">
+        <v>10</v>
+      </c>
+      <c r="D123">
+        <v>0.11219999999999999</v>
+      </c>
+      <c r="E123">
+        <f t="shared" si="12"/>
+        <v>10132500</v>
+      </c>
+      <c r="F123">
+        <f t="shared" si="13"/>
+        <v>323.14999999999998</v>
+      </c>
+      <c r="G123">
+        <f t="shared" si="14"/>
+        <v>1.2845061011377237</v>
+      </c>
+      <c r="H123">
+        <f t="shared" si="15"/>
+        <v>2.0197368421052631E-2</v>
+      </c>
+      <c r="I123">
+        <f t="shared" si="16"/>
+        <v>0.02</v>
+      </c>
+      <c r="J123">
+        <f t="shared" si="17"/>
+        <v>0.24019736842105263</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>150</v>
+      </c>
+      <c r="B124">
+        <v>50</v>
+      </c>
+      <c r="C124" t="s">
+        <v>10</v>
+      </c>
+      <c r="D124">
+        <v>0.16650000000000001</v>
+      </c>
+      <c r="E124">
+        <f t="shared" si="12"/>
+        <v>15198750</v>
+      </c>
+      <c r="F124">
+        <f t="shared" si="13"/>
+        <v>323.14999999999998</v>
+      </c>
+      <c r="G124">
+        <f t="shared" si="14"/>
+        <v>1.9267591517065856</v>
+      </c>
+      <c r="H124">
+        <f t="shared" si="15"/>
+        <v>2.0131578947368424E-2</v>
+      </c>
+      <c r="I124">
+        <f t="shared" si="16"/>
+        <v>0.02</v>
+      </c>
+      <c r="J124">
+        <f t="shared" si="17"/>
+        <v>0.24013157894736842</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>200</v>
+      </c>
+      <c r="B125">
+        <v>50</v>
+      </c>
+      <c r="C125" t="s">
+        <v>10</v>
+      </c>
+      <c r="D125">
+        <v>0.22</v>
+      </c>
+      <c r="E125">
+        <f t="shared" si="12"/>
+        <v>20265000</v>
+      </c>
+      <c r="F125">
+        <f t="shared" si="13"/>
+        <v>323.14999999999998</v>
+      </c>
+      <c r="G125">
+        <f t="shared" si="14"/>
+        <v>2.5690122022754474</v>
+      </c>
+      <c r="H125">
+        <f t="shared" si="15"/>
+        <v>2.0098684210526317E-2</v>
+      </c>
+      <c r="I125">
+        <f t="shared" si="16"/>
+        <v>0.02</v>
+      </c>
+      <c r="J125">
+        <f t="shared" si="17"/>
+        <v>0.24009868421052633</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>250</v>
+      </c>
+      <c r="B126">
+        <v>50</v>
+      </c>
+      <c r="C126" t="s">
+        <v>10</v>
+      </c>
+      <c r="D126">
+        <v>0.2727</v>
+      </c>
+      <c r="E126">
+        <f t="shared" si="12"/>
+        <v>25331250</v>
+      </c>
+      <c r="F126">
+        <f t="shared" si="13"/>
+        <v>323.14999999999998</v>
+      </c>
+      <c r="G126">
+        <f t="shared" si="14"/>
+        <v>3.2112652528443095</v>
+      </c>
+      <c r="H126">
+        <f t="shared" si="15"/>
+        <v>2.0078947368421054E-2</v>
+      </c>
+      <c r="I126">
+        <f t="shared" si="16"/>
+        <v>0.02</v>
+      </c>
+      <c r="J126">
+        <f t="shared" si="17"/>
+        <v>0.24007894736842106</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>300</v>
+      </c>
+      <c r="B127">
+        <v>50</v>
+      </c>
+      <c r="C127" t="s">
+        <v>10</v>
+      </c>
+      <c r="D127">
+        <v>0.3246</v>
+      </c>
+      <c r="E127">
+        <f t="shared" si="12"/>
+        <v>30397500</v>
+      </c>
+      <c r="F127">
+        <f t="shared" si="13"/>
+        <v>323.14999999999998</v>
+      </c>
+      <c r="G127">
+        <f t="shared" si="14"/>
+        <v>3.8535183034131713</v>
+      </c>
+      <c r="H127">
+        <f t="shared" si="15"/>
+        <v>2.006578947368421E-2</v>
+      </c>
+      <c r="I127">
+        <f t="shared" si="16"/>
+        <v>0.02</v>
+      </c>
+      <c r="J127">
+        <f t="shared" si="17"/>
+        <v>0.2400657894736842</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>400</v>
+      </c>
+      <c r="B128">
+        <v>50</v>
+      </c>
+      <c r="C128" t="s">
+        <v>10</v>
+      </c>
+      <c r="D128">
+        <v>0.4249</v>
+      </c>
+      <c r="E128">
+        <f t="shared" si="12"/>
+        <v>40530000</v>
+      </c>
+      <c r="F128">
+        <f t="shared" si="13"/>
+        <v>323.14999999999998</v>
+      </c>
+      <c r="G128">
+        <f t="shared" si="14"/>
+        <v>5.1380244045508947</v>
+      </c>
+      <c r="H128">
+        <f t="shared" si="15"/>
+        <v>2.0049342105263161E-2</v>
+      </c>
+      <c r="I128">
+        <f t="shared" si="16"/>
+        <v>0.02</v>
+      </c>
+      <c r="J128">
+        <f t="shared" si="17"/>
+        <v>0.24004934210526316</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>500</v>
+      </c>
+      <c r="B129">
+        <v>50</v>
+      </c>
+      <c r="C129" t="s">
+        <v>10</v>
+      </c>
+      <c r="D129">
+        <v>0.52459999999999996</v>
+      </c>
+      <c r="E129">
+        <f t="shared" si="12"/>
+        <v>50662500</v>
+      </c>
+      <c r="F129">
+        <f t="shared" si="13"/>
+        <v>323.14999999999998</v>
+      </c>
+      <c r="G129">
+        <f t="shared" si="14"/>
+        <v>6.4225305056886191</v>
+      </c>
+      <c r="H129">
+        <f t="shared" si="15"/>
+        <v>2.0039473684210527E-2</v>
+      </c>
+      <c r="I129">
+        <f t="shared" si="16"/>
+        <v>0.02</v>
+      </c>
+      <c r="J129">
+        <f t="shared" si="17"/>
+        <v>0.24003947368421052</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>50</v>
+      </c>
+      <c r="B130">
+        <v>75</v>
+      </c>
+      <c r="C130" t="s">
+        <v>10</v>
+      </c>
+      <c r="D130">
+        <v>5.7389999999999997E-2</v>
+      </c>
+      <c r="E130">
+        <f t="shared" si="12"/>
+        <v>5066250</v>
+      </c>
+      <c r="F130">
+        <f t="shared" si="13"/>
+        <v>348.15</v>
+      </c>
+      <c r="G130">
+        <f t="shared" si="14"/>
+        <v>0.39742270724558898</v>
+      </c>
+      <c r="H130">
+        <f t="shared" si="15"/>
+        <v>2.0394736842105264E-2</v>
+      </c>
+      <c r="I130">
+        <f t="shared" si="16"/>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="J130">
+        <f t="shared" si="17"/>
+        <v>0.23372807017543862</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>75</v>
+      </c>
+      <c r="B131">
+        <v>75</v>
+      </c>
+      <c r="C131" t="s">
+        <v>10</v>
+      </c>
+      <c r="D131">
+        <v>8.5220000000000004E-2</v>
+      </c>
+      <c r="E131">
+        <f t="shared" si="12"/>
+        <v>7599375</v>
+      </c>
+      <c r="F131">
+        <f t="shared" si="13"/>
+        <v>348.15</v>
+      </c>
+      <c r="G131">
+        <f t="shared" si="14"/>
+        <v>0.5961340608683835</v>
+      </c>
+      <c r="H131">
+        <f t="shared" si="15"/>
+        <v>2.0263157894736844E-2</v>
+      </c>
+      <c r="I131">
+        <f t="shared" si="16"/>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="J131">
+        <f t="shared" si="17"/>
+        <v>0.23359649122807019</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>100</v>
+      </c>
+      <c r="B132">
+        <v>75</v>
+      </c>
+      <c r="C132" t="s">
+        <v>10</v>
+      </c>
+      <c r="D132">
+        <v>0.11260000000000001</v>
+      </c>
+      <c r="E132">
+        <f t="shared" si="12"/>
+        <v>10132500</v>
+      </c>
+      <c r="F132">
+        <f t="shared" si="13"/>
+        <v>348.15</v>
+      </c>
+      <c r="G132">
+        <f t="shared" si="14"/>
+        <v>0.79484541449117796</v>
+      </c>
+      <c r="H132">
+        <f t="shared" si="15"/>
+        <v>2.0197368421052631E-2</v>
+      </c>
+      <c r="I132">
+        <f t="shared" si="16"/>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="J132">
+        <f t="shared" si="17"/>
+        <v>0.23353070175438598</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>150</v>
+      </c>
+      <c r="B133">
+        <v>75</v>
+      </c>
+      <c r="C133" t="s">
+        <v>10</v>
+      </c>
+      <c r="D133">
+        <v>0.1661</v>
+      </c>
+      <c r="E133">
+        <f t="shared" si="12"/>
+        <v>15198750</v>
+      </c>
+      <c r="F133">
+        <f t="shared" si="13"/>
+        <v>348.15</v>
+      </c>
+      <c r="G133">
+        <f t="shared" si="14"/>
+        <v>1.192268121736767</v>
+      </c>
+      <c r="H133">
+        <f t="shared" si="15"/>
+        <v>2.0131578947368424E-2</v>
+      </c>
+      <c r="I133">
+        <f t="shared" si="16"/>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="J133">
+        <f t="shared" si="17"/>
+        <v>0.23346491228070176</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>200</v>
+      </c>
+      <c r="B134">
+        <v>75</v>
+      </c>
+      <c r="C134" t="s">
+        <v>10</v>
+      </c>
+      <c r="D134">
+        <v>0.21840000000000001</v>
+      </c>
+      <c r="E134">
+        <f t="shared" si="12"/>
+        <v>20265000</v>
+      </c>
+      <c r="F134">
+        <f t="shared" si="13"/>
+        <v>348.15</v>
+      </c>
+      <c r="G134">
+        <f t="shared" si="14"/>
+        <v>1.5896908289823559</v>
+      </c>
+      <c r="H134">
+        <f t="shared" si="15"/>
+        <v>2.0098684210526317E-2</v>
+      </c>
+      <c r="I134">
+        <f t="shared" si="16"/>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="J134">
+        <f t="shared" si="17"/>
+        <v>0.23343201754385967</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>250</v>
+      </c>
+      <c r="B135">
+        <v>75</v>
+      </c>
+      <c r="C135" t="s">
+        <v>10</v>
+      </c>
+      <c r="D135">
+        <v>0.26950000000000002</v>
+      </c>
+      <c r="E135">
+        <f t="shared" si="12"/>
+        <v>25331250</v>
+      </c>
+      <c r="F135">
+        <f t="shared" si="13"/>
+        <v>348.15</v>
+      </c>
+      <c r="G135">
+        <f t="shared" si="14"/>
+        <v>1.9871135362279448</v>
+      </c>
+      <c r="H135">
+        <f t="shared" si="15"/>
+        <v>2.0078947368421054E-2</v>
+      </c>
+      <c r="I135">
+        <f t="shared" si="16"/>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="J135">
+        <f t="shared" si="17"/>
+        <v>0.2334122807017544</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>300</v>
+      </c>
+      <c r="B136">
+        <v>75</v>
+      </c>
+      <c r="C136" t="s">
+        <v>10</v>
+      </c>
+      <c r="D136">
+        <v>0.31979999999999997</v>
+      </c>
+      <c r="E136">
+        <f t="shared" si="12"/>
+        <v>30397500</v>
+      </c>
+      <c r="F136">
+        <f t="shared" si="13"/>
+        <v>348.15</v>
+      </c>
+      <c r="G136">
+        <f t="shared" si="14"/>
+        <v>2.384536243473534</v>
+      </c>
+      <c r="H136">
+        <f t="shared" si="15"/>
+        <v>2.006578947368421E-2</v>
+      </c>
+      <c r="I136">
+        <f t="shared" si="16"/>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="J136">
+        <f t="shared" si="17"/>
+        <v>0.23339912280701755</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>400</v>
+      </c>
+      <c r="B137">
+        <v>75</v>
+      </c>
+      <c r="C137" t="s">
+        <v>10</v>
+      </c>
+      <c r="D137">
+        <v>0.41789999999999999</v>
+      </c>
+      <c r="E137">
+        <f t="shared" si="12"/>
+        <v>40530000</v>
+      </c>
+      <c r="F137">
+        <f t="shared" si="13"/>
+        <v>348.15</v>
+      </c>
+      <c r="G137">
+        <f t="shared" si="14"/>
+        <v>3.1793816579647118</v>
+      </c>
+      <c r="H137">
+        <f t="shared" si="15"/>
+        <v>2.0049342105263161E-2</v>
+      </c>
+      <c r="I137">
+        <f t="shared" si="16"/>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="J137">
+        <f t="shared" si="17"/>
+        <v>0.2333826754385965</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>500</v>
+      </c>
+      <c r="B138">
+        <v>75</v>
+      </c>
+      <c r="C138" t="s">
+        <v>10</v>
+      </c>
+      <c r="D138">
+        <v>0.51329999999999998</v>
+      </c>
+      <c r="E138">
+        <f t="shared" si="12"/>
+        <v>50662500</v>
+      </c>
+      <c r="F138">
+        <f t="shared" si="13"/>
+        <v>348.15</v>
+      </c>
+      <c r="G138">
+        <f t="shared" si="14"/>
+        <v>3.9742270724558897</v>
+      </c>
+      <c r="H138">
+        <f t="shared" si="15"/>
+        <v>2.0039473684210527E-2</v>
+      </c>
+      <c r="I138">
+        <f t="shared" si="16"/>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="J138">
+        <f t="shared" si="17"/>
+        <v>0.23337280701754387</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>75</v>
+      </c>
+      <c r="B139">
+        <v>100</v>
+      </c>
+      <c r="C139" t="s">
+        <v>10</v>
+      </c>
+      <c r="D139">
+        <v>9.0079999999999993E-2</v>
+      </c>
+      <c r="E139">
+        <f t="shared" si="12"/>
+        <v>7599375</v>
+      </c>
+      <c r="F139">
+        <f t="shared" si="13"/>
+        <v>373.15</v>
+      </c>
+      <c r="G139">
+        <f t="shared" si="14"/>
+        <v>0.41714606718074709</v>
+      </c>
+      <c r="H139">
+        <f t="shared" si="15"/>
+        <v>2.0263157894736844E-2</v>
+      </c>
+      <c r="I139">
+        <f t="shared" si="16"/>
+        <v>0.01</v>
+      </c>
+      <c r="J139">
+        <f t="shared" si="17"/>
+        <v>0.23026315789473686</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>100</v>
+      </c>
+      <c r="B140">
+        <v>100</v>
+      </c>
+      <c r="C140" t="s">
+        <v>10</v>
+      </c>
+      <c r="D140">
+        <v>0.1176</v>
+      </c>
+      <c r="E140">
+        <f t="shared" si="12"/>
+        <v>10132500</v>
+      </c>
+      <c r="F140">
+        <f t="shared" si="13"/>
+        <v>373.15</v>
+      </c>
+      <c r="G140">
+        <f t="shared" si="14"/>
+        <v>0.55619475624099612</v>
+      </c>
+      <c r="H140">
+        <f t="shared" si="15"/>
+        <v>2.0197368421052631E-2</v>
+      </c>
+      <c r="I140">
+        <f t="shared" si="16"/>
+        <v>0.01</v>
+      </c>
+      <c r="J140">
+        <f t="shared" si="17"/>
+        <v>0.23019736842105265</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>150</v>
+      </c>
+      <c r="B141">
+        <v>100</v>
+      </c>
+      <c r="C141" t="s">
+        <v>10</v>
+      </c>
+      <c r="D141">
+        <v>0.1711</v>
+      </c>
+      <c r="E141">
+        <f t="shared" si="12"/>
+        <v>15198750</v>
+      </c>
+      <c r="F141">
+        <f t="shared" si="13"/>
+        <v>373.15</v>
+      </c>
+      <c r="G141">
+        <f t="shared" si="14"/>
+        <v>0.83429213436149419</v>
+      </c>
+      <c r="H141">
+        <f t="shared" si="15"/>
+        <v>2.0131578947368424E-2</v>
+      </c>
+      <c r="I141">
+        <f t="shared" si="16"/>
+        <v>0.01</v>
+      </c>
+      <c r="J141">
+        <f t="shared" si="17"/>
+        <v>0.23013157894736844</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>200</v>
+      </c>
+      <c r="B142">
+        <v>100</v>
+      </c>
+      <c r="C142" t="s">
+        <v>10</v>
+      </c>
+      <c r="D142">
+        <v>0.22220000000000001</v>
+      </c>
+      <c r="E142">
+        <f t="shared" si="12"/>
+        <v>20265000</v>
+      </c>
+      <c r="F142">
+        <f t="shared" si="13"/>
+        <v>373.15</v>
+      </c>
+      <c r="G142">
+        <f t="shared" si="14"/>
+        <v>1.1123895124819922</v>
+      </c>
+      <c r="H142">
+        <f t="shared" si="15"/>
+        <v>2.0098684210526317E-2</v>
+      </c>
+      <c r="I142">
+        <f t="shared" si="16"/>
+        <v>0.01</v>
+      </c>
+      <c r="J142">
+        <f t="shared" si="17"/>
+        <v>0.23009868421052634</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>250</v>
+      </c>
+      <c r="B143">
+        <v>100</v>
+      </c>
+      <c r="C143" t="s">
+        <v>10</v>
+      </c>
+      <c r="D143">
+        <v>0.27239999999999998</v>
+      </c>
+      <c r="E143">
+        <f t="shared" si="12"/>
+        <v>25331250</v>
+      </c>
+      <c r="F143">
+        <f t="shared" si="13"/>
+        <v>373.15</v>
+      </c>
+      <c r="G143">
+        <f t="shared" si="14"/>
+        <v>1.3904868906024903</v>
+      </c>
+      <c r="H143">
+        <f t="shared" si="15"/>
+        <v>2.0078947368421054E-2</v>
+      </c>
+      <c r="I143">
+        <f t="shared" si="16"/>
+        <v>0.01</v>
+      </c>
+      <c r="J143">
+        <f t="shared" si="17"/>
+        <v>0.23007894736842108</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>300</v>
+      </c>
+      <c r="B144">
+        <v>100</v>
+      </c>
+      <c r="C144" t="s">
+        <v>10</v>
+      </c>
+      <c r="D144">
+        <v>0.32129999999999997</v>
+      </c>
+      <c r="E144">
+        <f t="shared" si="12"/>
+        <v>30397500</v>
+      </c>
+      <c r="F144">
+        <f t="shared" si="13"/>
+        <v>373.15</v>
+      </c>
+      <c r="G144">
+        <f t="shared" si="14"/>
+        <v>1.6685842687229884</v>
+      </c>
+      <c r="H144">
+        <f t="shared" si="15"/>
+        <v>2.006578947368421E-2</v>
+      </c>
+      <c r="I144">
+        <f t="shared" si="16"/>
+        <v>0.01</v>
+      </c>
+      <c r="J144">
+        <f t="shared" si="17"/>
+        <v>0.23006578947368422</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>400</v>
+      </c>
+      <c r="B145">
+        <v>100</v>
+      </c>
+      <c r="C145" t="s">
+        <v>10</v>
+      </c>
+      <c r="D145">
+        <v>0.41610000000000003</v>
+      </c>
+      <c r="E145">
+        <f t="shared" si="12"/>
+        <v>40530000</v>
+      </c>
+      <c r="F145">
+        <f t="shared" si="13"/>
+        <v>373.15</v>
+      </c>
+      <c r="G145">
+        <f t="shared" si="14"/>
+        <v>2.2247790249639845</v>
+      </c>
+      <c r="H145">
+        <f t="shared" si="15"/>
+        <v>2.0049342105263161E-2</v>
+      </c>
+      <c r="I145">
+        <f t="shared" si="16"/>
+        <v>0.01</v>
+      </c>
+      <c r="J145">
+        <f t="shared" si="17"/>
+        <v>0.23004934210526318</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>500</v>
+      </c>
+      <c r="B146">
+        <v>100</v>
+      </c>
+      <c r="C146" t="s">
+        <v>10</v>
+      </c>
+      <c r="D146">
+        <v>0.50819999999999999</v>
+      </c>
+      <c r="E146">
+        <f t="shared" si="12"/>
+        <v>50662500</v>
+      </c>
+      <c r="F146">
+        <f t="shared" si="13"/>
+        <v>373.15</v>
+      </c>
+      <c r="G146">
+        <f t="shared" si="14"/>
+        <v>2.7809737812049806</v>
+      </c>
+      <c r="H146">
+        <f t="shared" si="15"/>
+        <v>2.0039473684210527E-2</v>
+      </c>
+      <c r="I146">
+        <f t="shared" si="16"/>
+        <v>0.01</v>
+      </c>
+      <c r="J146">
+        <f t="shared" si="17"/>
+        <v>0.23003947368421054</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>100</v>
+      </c>
+      <c r="B147">
+        <v>125</v>
+      </c>
+      <c r="C147" t="s">
+        <v>10</v>
+      </c>
+      <c r="D147">
+        <v>0.14349999999999999</v>
+      </c>
+      <c r="E147">
+        <f t="shared" si="12"/>
+        <v>10132500</v>
+      </c>
+      <c r="F147">
+        <f t="shared" si="13"/>
+        <v>398.15</v>
+      </c>
+      <c r="G147">
+        <f t="shared" si="14"/>
+        <v>0.4170168495116468</v>
+      </c>
+      <c r="H147">
+        <f t="shared" si="15"/>
+        <v>2.0197368421052631E-2</v>
+      </c>
+      <c r="I147">
+        <f t="shared" si="16"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J147">
+        <f t="shared" si="17"/>
+        <v>0.22819736842105265</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>150</v>
+      </c>
+      <c r="B148">
+        <v>125</v>
+      </c>
+      <c r="C148" t="s">
+        <v>10</v>
+      </c>
+      <c r="D148">
+        <v>0.18659999999999999</v>
+      </c>
+      <c r="E148">
+        <f t="shared" si="12"/>
+        <v>15198750</v>
+      </c>
+      <c r="F148">
+        <f t="shared" si="13"/>
+        <v>398.15</v>
+      </c>
+      <c r="G148">
+        <f t="shared" si="14"/>
+        <v>0.62552527426747018</v>
+      </c>
+      <c r="H148">
+        <f t="shared" si="15"/>
+        <v>2.0131578947368424E-2</v>
+      </c>
+      <c r="I148">
+        <f t="shared" si="16"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J148">
+        <f t="shared" si="17"/>
+        <v>0.22813157894736844</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>200</v>
+      </c>
+      <c r="B149">
+        <v>125</v>
+      </c>
+      <c r="C149" t="s">
+        <v>10</v>
+      </c>
+      <c r="D149">
+        <v>0.2351</v>
+      </c>
+      <c r="E149">
+        <f t="shared" si="12"/>
+        <v>20265000</v>
+      </c>
+      <c r="F149">
+        <f t="shared" si="13"/>
+        <v>398.15</v>
+      </c>
+      <c r="G149">
+        <f t="shared" si="14"/>
+        <v>0.83403369902329361</v>
+      </c>
+      <c r="H149">
+        <f t="shared" si="15"/>
+        <v>2.0098684210526317E-2</v>
+      </c>
+      <c r="I149">
+        <f t="shared" si="16"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J149">
+        <f t="shared" si="17"/>
+        <v>0.22809868421052634</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>250</v>
+      </c>
+      <c r="B150">
+        <v>125</v>
+      </c>
+      <c r="C150" t="s">
+        <v>10</v>
+      </c>
+      <c r="D150">
+        <v>0.28320000000000001</v>
+      </c>
+      <c r="E150">
+        <f t="shared" si="12"/>
+        <v>25331250</v>
+      </c>
+      <c r="F150">
+        <f t="shared" si="13"/>
+        <v>398.15</v>
+      </c>
+      <c r="G150">
+        <f t="shared" si="14"/>
+        <v>1.042542123779117</v>
+      </c>
+      <c r="H150">
+        <f t="shared" si="15"/>
+        <v>2.0078947368421054E-2</v>
+      </c>
+      <c r="I150">
+        <f t="shared" si="16"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J150">
+        <f t="shared" si="17"/>
+        <v>0.22807894736842108</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>300</v>
+      </c>
+      <c r="B151">
+        <v>125</v>
+      </c>
+      <c r="C151" t="s">
+        <v>10</v>
+      </c>
+      <c r="D151">
+        <v>0.33</v>
+      </c>
+      <c r="E151">
+        <f t="shared" si="12"/>
+        <v>30397500</v>
+      </c>
+      <c r="F151">
+        <f t="shared" si="13"/>
+        <v>398.15</v>
+      </c>
+      <c r="G151">
+        <f t="shared" si="14"/>
+        <v>1.2510505485349404</v>
+      </c>
+      <c r="H151">
+        <f t="shared" si="15"/>
+        <v>2.006578947368421E-2</v>
+      </c>
+      <c r="I151">
+        <f t="shared" si="16"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J151">
+        <f t="shared" si="17"/>
+        <v>0.22806578947368422</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>400</v>
+      </c>
+      <c r="B152">
+        <v>125</v>
+      </c>
+      <c r="C152" t="s">
+        <v>10</v>
+      </c>
+      <c r="D152">
+        <v>0.4209</v>
+      </c>
+      <c r="E152">
+        <f t="shared" si="12"/>
+        <v>40530000</v>
+      </c>
+      <c r="F152">
+        <f t="shared" si="13"/>
+        <v>398.15</v>
+      </c>
+      <c r="G152">
+        <f t="shared" si="14"/>
+        <v>1.6680673980465872</v>
+      </c>
+      <c r="H152">
+        <f t="shared" si="15"/>
+        <v>2.0049342105263161E-2</v>
+      </c>
+      <c r="I152">
+        <f t="shared" si="16"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J152">
+        <f t="shared" si="17"/>
+        <v>0.22804934210526318</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>500</v>
+      </c>
+      <c r="B153">
+        <v>125</v>
+      </c>
+      <c r="C153" t="s">
+        <v>10</v>
+      </c>
+      <c r="D153">
+        <v>0.50880000000000003</v>
+      </c>
+      <c r="E153">
+        <f t="shared" si="12"/>
+        <v>50662500</v>
+      </c>
+      <c r="F153">
+        <f t="shared" si="13"/>
+        <v>398.15</v>
+      </c>
+      <c r="G153">
+        <f t="shared" si="14"/>
+        <v>2.0850842475582341</v>
+      </c>
+      <c r="H153">
+        <f t="shared" si="15"/>
+        <v>2.0039473684210527E-2</v>
+      </c>
+      <c r="I153">
+        <f t="shared" si="16"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J153">
+        <f t="shared" si="17"/>
+        <v>0.22803947368421054</v>
       </c>
     </row>
   </sheetData>
